--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3406195.346052031</v>
+        <v>3400417.808051305</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847142</v>
+        <v>2310564.143223172</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791238</v>
+        <v>419463.0933791249</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6861086.738501524</v>
+        <v>6859906.779720685</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>168.4372667353631</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>125.2521290670234</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>98.54676348899511</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>62.56177213535487</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>131.6846499321094</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>9.947215833529864</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -865,7 +865,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>295.5055854171792</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>32.69611243920814</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>2.544705280223914</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899511</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>114.789077753388</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>206.7324725124572</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>53.43194261545469</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>214.2065345353338</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128.3333230271167</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>100.2698474393481</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>52.2205731687292</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
@@ -1385,10 +1385,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>96.25178277104308</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D14" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>32.33376274836336</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U14" t="n">
-        <v>56.49943888151674</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497646</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1819,16 +1819,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190374</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219399</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497646</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2767,16 +2767,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003576</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281734</v>
+        <v>273.2139126555346</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415736</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806956</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313967</v>
+        <v>296.6956602587579</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029515</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752489</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453451</v>
+        <v>20.92391191189574</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443464</v>
+        <v>48.81858568179587</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622522</v>
+        <v>105.2357625896134</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158221</v>
+        <v>137.1653684431833</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495915</v>
+        <v>222.6559073769527</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274701</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623484</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346796</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046296</v>
+        <v>67.32610467782419</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074537</v>
+        <v>52.4732329281066</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258509</v>
+        <v>38.04694813994632</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546421</v>
+        <v>37.97339019282543</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523147</v>
+        <v>39.7228416125927</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762361</v>
+        <v>50.54167953498484</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419565</v>
+        <v>37.89393170155688</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536758</v>
+        <v>15.73364728272881</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.0756081198235</v>
+        <v>6.632145647184728</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535082</v>
+        <v>84.75808915271205</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595229</v>
+        <v>117.3320274868841</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865928</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734587</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942088</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409214</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175978</v>
+        <v>104.851106744959</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3272,7 +3272,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U38" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658116</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>89.28721883162231</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G41" t="n">
-        <v>297.3706365744827</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>224.3753804589425</v>
       </c>
       <c r="I41" t="n">
-        <v>40.4869062682279</v>
+        <v>40.48690626822805</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812818</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>156.7283627995156</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332849</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415635</v>
+        <v>86.8890990341565</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443875</v>
+        <v>72.03622728443891</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627848</v>
+        <v>57.60994249627863</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915759</v>
+        <v>57.53638454915775</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892486</v>
+        <v>59.28583596892501</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131699</v>
+        <v>70.10467389131715</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788904</v>
+        <v>57.45692605788919</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906097</v>
+        <v>35.29664163906112</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351688</v>
+        <v>26.19514000351704</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090444</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432165</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702863</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779024</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>285.1198780252672</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643889</v>
+        <v>18.06928294304225</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G44" t="n">
-        <v>262.2099645176018</v>
+        <v>312.5642884866451</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822805</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812818</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>156.7283627995156</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415635</v>
+        <v>86.8890990341565</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443875</v>
+        <v>72.03622728443891</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627848</v>
+        <v>57.60994249627863</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915759</v>
+        <v>57.53638454915775</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892486</v>
+        <v>59.28583596892501</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131699</v>
+        <v>70.10467389131715</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788904</v>
+        <v>57.45692605788919</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906097</v>
+        <v>35.29664163906112</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351688</v>
+        <v>26.19514000351704</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090444</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432165</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702863</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779024</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1404.060550923663</v>
+        <v>998.0277342448419</v>
       </c>
       <c r="C2" t="n">
-        <v>1010.885049426593</v>
+        <v>604.8522327477725</v>
       </c>
       <c r="D2" t="n">
-        <v>1010.885049426593</v>
+        <v>604.8522327477725</v>
       </c>
       <c r="E2" t="n">
-        <v>1010.885049426593</v>
+        <v>604.8522327477725</v>
       </c>
       <c r="F2" t="n">
-        <v>593.9906109565708</v>
+        <v>591.9981983181543</v>
       </c>
       <c r="G2" t="n">
-        <v>180.8278554445739</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="H2" t="n">
-        <v>180.8278554445739</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703872</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>42.49073853703872</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L2" t="n">
-        <v>284.6640550363772</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M2" t="n">
-        <v>810.4869444322313</v>
+        <v>1538.617529548892</v>
       </c>
       <c r="N2" t="n">
-        <v>1336.309833828085</v>
+        <v>1538.617529548892</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.349434720414</v>
+        <v>1676.728802799591</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851936</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851936</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137458</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078508</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>1920.030458078508</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="U2" t="n">
-        <v>1920.030458078508</v>
+        <v>1564.657096592284</v>
       </c>
       <c r="V2" t="n">
-        <v>1920.030458078508</v>
+        <v>1564.657096592284</v>
       </c>
       <c r="W2" t="n">
-        <v>1920.030458078508</v>
+        <v>1394.518443324241</v>
       </c>
       <c r="X2" t="n">
-        <v>1530.577853011565</v>
+        <v>1394.518443324241</v>
       </c>
       <c r="Y2" t="n">
-        <v>1404.060550923663</v>
+        <v>998.0277342448419</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770697</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="C3" t="n">
-        <v>691.2024912371619</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586422</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695299</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245262</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512713</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>639.1718066550793</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>1164.994696050933</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="N3" t="n">
-        <v>1164.994696050933</v>
+        <v>883.7630516643745</v>
       </c>
       <c r="O3" t="n">
-        <v>1681.514978641914</v>
+        <v>1384.929834659825</v>
       </c>
       <c r="P3" t="n">
-        <v>2087.136347358311</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851936</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.536926851936</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="S3" t="n">
-        <v>2124.536926851936</v>
+        <v>1889.985617830982</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>1713.00180602989</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1502.938662708532</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1439.744953480901</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1209.627707614188</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>1020.320629964199</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.653056118031</v>
+        <v>841.0064130397068</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>394.1086267103608</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="C4" t="n">
-        <v>394.1086267103608</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="D4" t="n">
-        <v>238.4755136128755</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="E4" t="n">
-        <v>82.91670147207805</v>
+        <v>685.02956116153</v>
       </c>
       <c r="F4" t="n">
-        <v>82.91670147207805</v>
+        <v>527.703626374503</v>
       </c>
       <c r="G4" t="n">
-        <v>82.91670147207805</v>
+        <v>359.4495724739485</v>
       </c>
       <c r="H4" t="n">
-        <v>82.91670147207805</v>
+        <v>203.9710214354424</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093677</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590444</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902535</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319615</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085401</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111681</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>617.2206878937175</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>617.2206878937175</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="U4" t="n">
-        <v>617.2206878937175</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="V4" t="n">
-        <v>617.2206878937175</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="W4" t="n">
-        <v>617.2206878937175</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="X4" t="n">
-        <v>617.2206878937175</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="Y4" t="n">
-        <v>394.1086267103608</v>
+        <v>818.0443590727516</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1289.558558346662</v>
+        <v>604.8522327477725</v>
       </c>
       <c r="C5" t="n">
-        <v>1289.558558346662</v>
+        <v>604.8522327477725</v>
       </c>
       <c r="D5" t="n">
-        <v>904.1174295633296</v>
+        <v>604.8522327477725</v>
       </c>
       <c r="E5" t="n">
-        <v>501.5339046798741</v>
+        <v>604.8522327477725</v>
       </c>
       <c r="F5" t="n">
-        <v>84.63946620985183</v>
+        <v>591.9981983181543</v>
       </c>
       <c r="G5" t="n">
-        <v>75.51711473825907</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="H5" t="n">
-        <v>75.51711473825907</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458668</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K5" t="n">
-        <v>187.1405114458668</v>
+        <v>399.4806819260841</v>
       </c>
       <c r="L5" t="n">
-        <v>625.6413842912829</v>
+        <v>489.5496766677418</v>
       </c>
       <c r="M5" t="n">
-        <v>625.6413842912829</v>
+        <v>990.7164596631923</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.464273687137</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579465</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710987</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851936</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137458</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="S5" t="n">
-        <v>2086.544013137458</v>
+        <v>1858.402739872164</v>
       </c>
       <c r="T5" t="n">
-        <v>2086.544013137458</v>
+        <v>1634.90213743158</v>
       </c>
       <c r="U5" t="n">
-        <v>2086.544013137458</v>
+        <v>1634.90213743158</v>
       </c>
       <c r="V5" t="n">
-        <v>2086.544013137458</v>
+        <v>1292.795328135099</v>
       </c>
       <c r="W5" t="n">
-        <v>2086.544013137458</v>
+        <v>1292.795328135099</v>
       </c>
       <c r="X5" t="n">
-        <v>2086.544013137458</v>
+        <v>903.3427230681556</v>
       </c>
       <c r="Y5" t="n">
-        <v>1690.053304058059</v>
+        <v>903.3427230681556</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770697</v>
+        <v>505.9467430955083</v>
       </c>
       <c r="C6" t="n">
-        <v>691.2024912371619</v>
+        <v>505.9467430955083</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586422</v>
+        <v>375.8577757169886</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695299</v>
+        <v>375.8577757169886</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>251.4259696001204</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245262</v>
+        <v>131.3661516719849</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512713</v>
+        <v>43.06873527258581</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703872</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703872</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>42.49073853703872</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M6" t="n">
-        <v>442.2072945938125</v>
+        <v>1458.08532307434</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896666</v>
+        <v>1458.08532307434</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580648</v>
+        <v>1959.25210606979</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297045</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851936</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851936</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851936</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1026.364372110951</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>837.0572944609623</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.653056118031</v>
+        <v>657.7430775364696</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>499.3980299413128</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="C7" t="n">
-        <v>499.3980299413128</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="D7" t="n">
-        <v>499.3980299413128</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E7" t="n">
-        <v>343.8392178005153</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F7" t="n">
-        <v>343.8392178005153</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G7" t="n">
-        <v>175.5851638999608</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H7" t="n">
-        <v>175.5851638999608</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590444</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902535</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319615</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085401</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785911</v>
+        <v>825.996785052914</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785911</v>
+        <v>825.996785052914</v>
       </c>
       <c r="T7" t="n">
-        <v>708.2187092468251</v>
+        <v>825.996785052914</v>
       </c>
       <c r="U7" t="n">
-        <v>708.2187092468251</v>
+        <v>540.5579932948149</v>
       </c>
       <c r="V7" t="n">
-        <v>708.2187092468251</v>
+        <v>274.5786481156392</v>
       </c>
       <c r="W7" t="n">
-        <v>708.2187092468251</v>
+        <v>274.5786481156392</v>
       </c>
       <c r="X7" t="n">
-        <v>499.3980299413128</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="Y7" t="n">
-        <v>499.3980299413128</v>
+        <v>40.49832589862226</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>261.5981321178197</v>
+        <v>1388.826628074147</v>
       </c>
       <c r="C8" t="n">
-        <v>261.5981321178197</v>
+        <v>995.6511265770774</v>
       </c>
       <c r="D8" t="n">
-        <v>261.5981321178197</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="E8" t="n">
         <v>207.6264729102897</v>
@@ -4802,52 +4802,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>2149.278268172803</v>
       </c>
       <c r="W8" t="n">
-        <v>1448.036191975559</v>
+        <v>1778.27923314109</v>
       </c>
       <c r="X8" t="n">
-        <v>1058.583586908615</v>
+        <v>1388.826628074147</v>
       </c>
       <c r="Y8" t="n">
-        <v>662.0928778292166</v>
+        <v>1388.826628074147</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>819.1303734237863</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>648.9252554897755</v>
+        <v>847.4773184619364</v>
       </c>
       <c r="D10" t="n">
-        <v>493.2921423922903</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="E10" t="n">
-        <v>337.7333302514928</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>180.4073954644657</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1598.67307041405</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.438250204169</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D11" t="n">
-        <v>1009.937802708025</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>702.2949591117579</v>
+        <v>974.833763878426</v>
       </c>
       <c r="F11" t="n">
-        <v>380.341201928924</v>
+        <v>652.8800066955921</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>334.6579324707836</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.823590280621</v>
       </c>
       <c r="U11" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2776.347440154748</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2500.289086410224</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2205.777162630469</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.227134838259</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669550998</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082774</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979807</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311672</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798495</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362512</v>
+        <v>125.396746836251</v>
       </c>
       <c r="K13" t="n">
         <v>300.283149675766</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791389</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469763</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5224,25 +5224,25 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852096</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1871.211875180718</v>
+        <v>1596.22939799694</v>
       </c>
       <c r="C14" t="n">
-        <v>1572.977054970837</v>
+        <v>1297.994577787059</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474693</v>
+        <v>1007.494130290914</v>
       </c>
       <c r="E14" t="n">
         <v>974.833763878426</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955921</v>
+        <v>652.880006695592</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707836</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
         <v>105.5155633244624</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>3048.886244921416</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>3048.886244921416</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2772.827891176892</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="X14" t="n">
-        <v>2478.315967397137</v>
+        <v>2203.333490213359</v>
       </c>
       <c r="Y14" t="n">
-        <v>2176.765939604927</v>
+        <v>1901.783462421149</v>
       </c>
     </row>
     <row r="15">
@@ -5355,13 +5355,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
         <v>1223.947919817482</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445329</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311667</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,7 +5434,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
@@ -5443,7 +5443,7 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5476,10 +5476,10 @@
         <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803428</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924221</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,13 +5549,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N18" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2009.716291882317</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,16 +5677,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924229</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184705</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567345</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879436</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296516</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292423</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6017,19 +6017,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102856</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,28 +6224,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>606.9665031662622</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614364</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6263,10 +6263,10 @@
         <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6382,16 +6382,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6409,25 +6409,25 @@
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>247.9841471388008</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>700.0178648958359</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1504.441740534771</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>2160.21971174533</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2391.700393923186</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878068</v>
@@ -6613,22 +6613,22 @@
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084636</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985471</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600043</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144914</v>
+        <v>890.2201666674332</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423735</v>
+        <v>590.5275805474757</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282811</v>
+        <v>294.5666773855437</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267619</v>
+        <v>87.68547930209937</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304537</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918735</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193353</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1638.012764160409</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2165.824047797871</v>
+        <v>2239.568548578348</v>
       </c>
       <c r="O32" t="n">
-        <v>2714.354156330586</v>
+        <v>2679.608149470677</v>
       </c>
       <c r="P32" t="n">
-        <v>3171.032156102493</v>
+        <v>3142.665177090497</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243442</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152268</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491223</v>
+        <v>3278.199034522561</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448544</v>
+        <v>3171.900284432043</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281047</v>
+        <v>3033.349407216706</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.03089038247</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748662</v>
+        <v>2554.647267588642</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079623</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398128</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230763</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831685</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046488</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986684</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304537</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304537</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="K33" t="n">
-        <v>388.2817734452718</v>
+        <v>351.4063628878917</v>
       </c>
       <c r="L33" t="n">
-        <v>871.847859343585</v>
+        <v>834.972448786205</v>
       </c>
       <c r="M33" t="n">
-        <v>871.847859343585</v>
+        <v>1462.744098412886</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1462.744098412886</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1979.264381003867</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.01916188853</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590181</v>
+        <v>341.687256555479</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229117</v>
+        <v>288.6839909715329</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233307</v>
+        <v>250.2527302241124</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804376</v>
+        <v>211.8957704333797</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913149</v>
+        <v>171.7716879964173</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886648</v>
+        <v>120.7194864459276</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806314</v>
+        <v>82.4427877574863</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304537</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J34" t="n">
-        <v>147.259392425994</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="K34" t="n">
-        <v>229.0944335359358</v>
+        <v>263.2547913428692</v>
       </c>
       <c r="L34" t="n">
-        <v>393.2220734097356</v>
+        <v>542.2519667049675</v>
       </c>
       <c r="M34" t="n">
-        <v>579.5136517479996</v>
+        <v>728.5435450432315</v>
       </c>
       <c r="N34" t="n">
-        <v>821.1101792827949</v>
+        <v>925.5829868426722</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964889</v>
+        <v>1203.157289372679</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381854</v>
+        <v>1323.033455149257</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392291</v>
+        <v>1326.455651519308</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422772</v>
+        <v>1319.75651450195</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003226</v>
+        <v>1234.142283034564</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569364</v>
+        <v>1115.625083552863</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209169</v>
+        <v>947.3881441448284</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914278979</v>
+        <v>798.6106513157173</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569799</v>
+        <v>632.4821015969596</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378674</v>
+        <v>515.6036317300075</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.754219152415</v>
+        <v>409.6934228967156</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
@@ -6929,10 +6929,10 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6965,7 +6965,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188067</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7011,7 +7011,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
@@ -7102,43 +7102,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343038</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655131</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072211</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838002</v>
+        <v>965.7235964837996</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7166,10 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
@@ -7342,40 +7342,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445246</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862326</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838006</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1838.360757116505</v>
+        <v>1340.175609875973</v>
       </c>
       <c r="C41" t="n">
-        <v>1542.626507609569</v>
+        <v>1044.441360369037</v>
       </c>
       <c r="D41" t="n">
-        <v>1254.62663081637</v>
+        <v>954.2522504381054</v>
       </c>
       <c r="E41" t="n">
-        <v>949.4843579230482</v>
+        <v>649.109977544783</v>
       </c>
       <c r="F41" t="n">
-        <v>630.0311714431591</v>
+        <v>329.6567910648938</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648936</v>
+        <v>329.6567910648938</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215175</v>
+        <v>103.0149926215176</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.884082136959</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.824731686509</v>
       </c>
       <c r="U41" t="n">
-        <v>2947.644907630508</v>
+        <v>2752.513254111241</v>
       </c>
       <c r="V41" t="n">
-        <v>2702.97935032416</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W41" t="n">
-        <v>2429.421567282581</v>
+        <v>2234.289913763313</v>
       </c>
       <c r="X41" t="n">
-        <v>2137.410214205771</v>
+        <v>1942.278560686503</v>
       </c>
       <c r="Y41" t="n">
-        <v>1838.360757116505</v>
+        <v>1643.229103597237</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344859</v>
+        <v>475.5803720344871</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906084</v>
+        <v>402.8165060906094</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832564</v>
+        <v>344.6246449832572</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325928</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356988</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252775</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690438</v>
+        <v>97.77230107690454</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822077</v>
+        <v>68.23195016744199</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>245.5691623529133</v>
       </c>
       <c r="L43" t="n">
-        <v>505.198973302239</v>
+        <v>505.1989733022426</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160326</v>
+        <v>786.992722716036</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822775</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940009</v>
+        <v>1323.891465940012</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.26980279212</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.194170237701</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860411</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423495</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234452</v>
       </c>
       <c r="W43" t="n">
-        <v>825.657018155761</v>
+        <v>825.6570181557627</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288773</v>
+        <v>689.0179479288789</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.347138735654</v>
+        <v>563.3471387356553</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1535.307263395241</v>
+        <v>1340.175609875973</v>
       </c>
       <c r="C44" t="n">
-        <v>1239.573013888305</v>
+        <v>1044.441360369037</v>
       </c>
       <c r="D44" t="n">
-        <v>951.5731370951064</v>
+        <v>756.441483575838</v>
       </c>
       <c r="E44" t="n">
-        <v>646.4308642017841</v>
+        <v>738.1896826232706</v>
       </c>
       <c r="F44" t="n">
-        <v>326.9776777218951</v>
+        <v>418.7364961433814</v>
       </c>
       <c r="G44" t="n">
+        <v>103.0149926215176</v>
+      </c>
+      <c r="H44" t="n">
+        <v>103.0149926215176</v>
+      </c>
+      <c r="I44" t="n">
         <v>62.11912770411553</v>
       </c>
-      <c r="H44" t="n">
-        <v>62.11912770411573</v>
-      </c>
-      <c r="I44" t="n">
-        <v>62.11912770411573</v>
-      </c>
       <c r="J44" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.824731686509</v>
       </c>
       <c r="U44" t="n">
-        <v>2947.644907630508</v>
+        <v>2752.513254111241</v>
       </c>
       <c r="V44" t="n">
-        <v>2702.97935032416</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
-        <v>2429.42156728258</v>
+        <v>2234.289913763313</v>
       </c>
       <c r="X44" t="n">
-        <v>2137.41021420577</v>
+        <v>1942.278560686503</v>
       </c>
       <c r="Y44" t="n">
-        <v>1838.360757116505</v>
+        <v>1643.229103597237</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344859</v>
+        <v>475.5803720344871</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906084</v>
+        <v>402.8165060906094</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832564</v>
+        <v>344.6246449832572</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325928</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356988</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252775</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690438</v>
+        <v>97.77230107690454</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822075</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>305.1847683676788</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170086</v>
+        <v>564.8145793170081</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308022</v>
+        <v>786.992722716036</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822775</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954779</v>
+        <v>1323.891465940012</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.26980279212</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.194170237701</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860411</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423495</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234452</v>
       </c>
       <c r="W46" t="n">
-        <v>825.657018155761</v>
+        <v>825.6570181557627</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288773</v>
+        <v>689.0179479288789</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.347138735654</v>
+        <v>563.3471387356553</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>397.8676813459851</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107111</v>
+        <v>655.9541253305056</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507681</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>289.0701740409647</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622958</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>334.4465145185219</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216672</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>128.766516280787</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>596.178344321821</v>
+        <v>244.2269522978227</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>655.9541253305056</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507681</v>
+        <v>655.3475650705624</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>496.1412190763562</v>
+        <v>598.6161957820901</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671506</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216672</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>153.4108283156006</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>556.6502691852513</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,10 +8538,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>454.5321323046934</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>92.83741255226374</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,25 +8769,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>571.8744206036794</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,7 +9012,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,7 +9249,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9258,7 +9258,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>461.5665676450056</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,19 +10197,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
-        <v>326.5064297756118</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,16 +10428,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095477</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10604,7 +10604,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>331.211385429451</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>250.2779506112373</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>148.4426839581572</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>272.2326524119411</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>102.7044889139142</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>195.8326591936448</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>15.19365191216221</v>
+        <v>312.5642884866451</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812802</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>284.0215672213469</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>50.35432396904315</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>224.3753804589425</v>
       </c>
       <c r="I44" t="n">
-        <v>40.4869062682279</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812802</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>598498.9681352933</v>
+        <v>597897.420521533</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>598498.9681352933</v>
+        <v>597897.420521533</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568132.1785706758</v>
+        <v>568132.1785706757</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>570496.8382547742</v>
+        <v>570496.838254774</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>570496.8382547742</v>
+        <v>570496.838254774</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>685262.2767547559</v>
+        <v>685262.2767547558</v>
       </c>
       <c r="C2" t="n">
-        <v>685262.2767547559</v>
+        <v>685262.2767547556</v>
       </c>
       <c r="D2" t="n">
-        <v>685262.2767547559</v>
+        <v>685262.2767547556</v>
       </c>
       <c r="E2" t="n">
-        <v>644009.2661963057</v>
+        <v>644009.266196306</v>
       </c>
       <c r="F2" t="n">
-        <v>644009.2661963061</v>
+        <v>644009.2661963055</v>
       </c>
       <c r="G2" t="n">
         <v>685262.2767547561</v>
       </c>
       <c r="H2" t="n">
-        <v>685262.2767547563</v>
+        <v>685262.2767547562</v>
       </c>
       <c r="I2" t="n">
-        <v>685262.276754756</v>
+        <v>685262.2767547562</v>
       </c>
       <c r="J2" t="n">
-        <v>685262.2767547556</v>
+        <v>685262.2767547559</v>
       </c>
       <c r="K2" t="n">
         <v>685262.2767547559</v>
       </c>
       <c r="L2" t="n">
-        <v>685262.2767547548</v>
+        <v>685262.2767547562</v>
       </c>
       <c r="M2" t="n">
+        <v>685262.276754756</v>
+      </c>
+      <c r="N2" t="n">
         <v>685262.2767547562</v>
       </c>
-      <c r="N2" t="n">
-        <v>685262.2767547561</v>
-      </c>
       <c r="O2" t="n">
-        <v>646817.2995711736</v>
+        <v>646817.2995711735</v>
       </c>
       <c r="P2" t="n">
         <v>646817.2995711735</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343503</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602693</v>
+        <v>26460.41160941822</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.9558730144</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469662</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670142</v>
+        <v>46725.8033548125</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436851</v>
+        <v>43782.97194555668</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015685</v>
+        <v>18983.55983015663</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192027.5467249336</v>
+        <v>198138.1733873963</v>
       </c>
       <c r="C4" t="n">
-        <v>192027.5467249336</v>
+        <v>198138.1733873963</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
@@ -26433,7 +26433,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="H4" t="n">
-        <v>147651.9979996331</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
         <v>147651.9979996332</v>
@@ -26445,19 +26445,19 @@
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148079.6358093552</v>
+        <v>147946.2412003004</v>
       </c>
       <c r="M4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="N4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>124722.2932551426</v>
+        <v>124722.2932551425</v>
       </c>
       <c r="P4" t="n">
-        <v>124722.2932551427</v>
+        <v>124722.2932551425</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814942</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814942</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446762</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.4077825507</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>249318.8716073226</v>
+        <v>253068.7698078567</v>
       </c>
       <c r="C6" t="n">
-        <v>427314.1687416728</v>
+        <v>422717.7756844065</v>
       </c>
       <c r="D6" t="n">
-        <v>419714.6855273971</v>
+        <v>411978.3963040055</v>
       </c>
       <c r="E6" t="n">
-        <v>335396.3681935333</v>
+        <v>335287.8076394323</v>
       </c>
       <c r="F6" t="n">
-        <v>465849.2993312458</v>
+        <v>465740.738777144</v>
       </c>
       <c r="G6" t="n">
-        <v>450345.553566589</v>
+        <v>450345.5535665888</v>
       </c>
       <c r="H6" t="n">
-        <v>479440.5094396036</v>
+        <v>479440.5094396034</v>
       </c>
       <c r="I6" t="n">
-        <v>479440.5094396031</v>
+        <v>479440.5094396034</v>
       </c>
       <c r="J6" t="n">
-        <v>251354.8660898536</v>
+        <v>257871.1512444268</v>
       </c>
       <c r="K6" t="n">
         <v>473200.7410368201</v>
       </c>
       <c r="L6" t="n">
-        <v>434306.3941042306</v>
+        <v>430257.5568937599</v>
       </c>
       <c r="M6" t="n">
-        <v>436709.2325052348</v>
+        <v>435657.5374940464</v>
       </c>
       <c r="N6" t="n">
-        <v>479440.5094396033</v>
+        <v>479440.5094396034</v>
       </c>
       <c r="O6" t="n">
-        <v>447791.0387033234</v>
+        <v>447689.8677107352</v>
       </c>
       <c r="P6" t="n">
-        <v>466774.5985334801</v>
+        <v>466673.4275408919</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129839</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129839</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,22 +26811,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880671</v>
+        <v>831.8776843078615</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.368694841268</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304846</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087677</v>
+        <v>58.40725419351563</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165905</v>
+        <v>14.33013548902036</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769607</v>
+        <v>23.72944978769578</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129839</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631114</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559181</v>
+        <v>646.8007142757125</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.783224045526</v>
+        <v>129.6883820257315</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.368694841268</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304846</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129839</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631114</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27388,7 +27388,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>198.8517779460323</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>267.2736729215815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>76.6672101940855</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>157.7528294772887</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>22.31857408728007</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>121.816265275763</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>100.9842128371037</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>104.2576332992517</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>46.34867616798361</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.6672101940855</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>7.872901720360815</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>25.00704648238948</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>345.1257470191662</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,7 +27910,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>124.4792066681829</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.02261547727156</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>68.2332193153226</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="17">
@@ -28749,16 +28749,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.636002634528467</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,37 +28956,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.636002634530087</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>35.71049010668756</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29217,19 +29217,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>35.71049010668767</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901209</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599572</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>26.78466270501451</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>103.2865954513717</v>
       </c>
       <c r="O32" t="n">
-        <v>109.5863713539253</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539253</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539253</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>58.99686212483445</v>
+        <v>13.98970481639549</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539253</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539253</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="35">
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.636002634527927</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>5.636002634528481</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>130.3599693155844</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155838</v>
       </c>
       <c r="X38" t="n">
         <v>130.3599693155844</v>
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>128.2979821082769</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023192</v>
+        <v>36.24905561693328</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="L43" t="n">
-        <v>36.24905561692944</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023192</v>
+        <v>36.24905561693325</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="P46" t="n">
-        <v>36.24905561692944</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023176</v>
       </c>
     </row>
   </sheetData>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>244.6195116154935</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129839</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129839</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>139.5063366168684</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129839</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.0744016643552</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>37.778363124873</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>442.9301745913293</v>
+        <v>90.97878256733097</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129839</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>403.7540970270443</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129839</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>66.32746349628592</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>407.086431761155</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>7.465299698097082</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,7 +35732,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,7 +35969,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>374.483202825691</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36045,16 +36045,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565485</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716079</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.4214974565501</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36294,7 +36294,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>156.7975262446457</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816465</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907917</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>531.134972901782</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>445.6958119809041</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>176.3831193851016</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,19 +36917,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
-        <v>233.8188708867229</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>578.300723356106</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>636.4293061962828</v>
       </c>
       <c r="O32" t="n">
-        <v>554.0708166997116</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>461.290908860513</v>
+        <v>467.7343713331518</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659202</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553811</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176624</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>198.691491513374</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>281.8153286485841</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>244.0368964997932</v>
+        <v>199.0297391913543</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910042</v>
+        <v>280.3780833636429</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918835</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640778</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110588</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37470,7 +37470,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873199</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37479,7 +37479,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724866</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>133.8167333257369</v>
@@ -37558,7 +37558,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832357</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807285</v>
+        <v>6.174568144774216</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570417</v>
       </c>
       <c r="L43" t="n">
-        <v>202.0345504389494</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230238</v>
+        <v>284.6401509230237</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073106</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081901</v>
+        <v>217.5538756081899</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.9236034803844</v>
+        <v>99.92360348038424</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807285</v>
+        <v>66.39235199807268</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570417</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230238</v>
+        <v>224.4223670697252</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073106</v>
       </c>
       <c r="P46" t="n">
-        <v>157.3360917548876</v>
+        <v>217.5538756081899</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.9236034803844</v>
+        <v>99.92360348038424</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
